--- a/S-401 - Feature Association Inland Features v0.0.xlsx
+++ b/S-401 - Feature Association Inland Features v0.0.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gael\Desktop\S-401 - FC\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\birklhub\t\InlandECDIS\IEHG\2024_Beijing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2289291E-4B71-408E-8277-D82301D33700}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5F6C695E-23D1-42BF-B5D9-35BC4618B9B1}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9756"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="56">
   <si>
     <t>Feature</t>
   </si>
@@ -186,13 +185,31 @@
   </si>
   <si>
     <t>The Information</t>
+  </si>
+  <si>
+    <t>Light?</t>
+  </si>
+  <si>
+    <t>hours?</t>
+  </si>
+  <si>
+    <t>connection to lock basin etc? (C_AGGR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">composition? Restricted area anchorage area, berth, </t>
+  </si>
+  <si>
+    <t>are there movable structures over navigable water?</t>
+  </si>
+  <si>
+    <t>notice marks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +408,15 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -400,15 +426,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -420,7 +437,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -751,24 +768,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBF9086C-ECF3-4FB0-B9B5-110D937BBD57}">
-  <dimension ref="A1:F79"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection activeCell="G86" sqref="G86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="29.42578125" customWidth="1"/>
-    <col min="2" max="2" width="24.28515625" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="5" width="30.42578125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="29.3984375" customWidth="1"/>
+    <col min="2" max="2" width="24.296875" customWidth="1"/>
+    <col min="3" max="3" width="26.3984375" customWidth="1"/>
+    <col min="4" max="5" width="30.3984375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="11.3984375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="16.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="15.75" thickBot="1">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -788,7 +805,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="22" t="s">
         <v>2</v>
       </c>
@@ -808,9 +825,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7">
       <c r="A3" s="23"/>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C3" s="6" t="s">
@@ -826,9 +843,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="40.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="39.6">
       <c r="A4" s="23"/>
-      <c r="B4" s="20"/>
+      <c r="B4" s="17"/>
       <c r="C4" s="6" t="s">
         <v>37</v>
       </c>
@@ -842,9 +859,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" ht="14.4" thickBot="1">
       <c r="A5" s="24"/>
-      <c r="B5" s="21"/>
+      <c r="B5" s="18"/>
       <c r="C5" s="9" t="s">
         <v>35</v>
       </c>
@@ -858,8 +875,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="6" t="s">
@@ -878,9 +895,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-      <c r="B7" s="19" t="s">
+    <row r="7" spans="1:7">
+      <c r="A7" s="20"/>
+      <c r="B7" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C7" s="6" t="s">
@@ -896,9 +913,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="20"/>
+    <row r="8" spans="1:7">
+      <c r="A8" s="20"/>
+      <c r="B8" s="17"/>
       <c r="C8" s="6" t="s">
         <v>37</v>
       </c>
@@ -912,9 +929,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
-      <c r="B9" s="21"/>
+    <row r="9" spans="1:7" ht="14.4" thickBot="1">
+      <c r="A9" s="21"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="9" t="s">
         <v>35</v>
       </c>
@@ -928,8 +945,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="16" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -947,9 +964,12 @@
       <c r="F10" s="5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="20"/>
       <c r="B11" s="6" t="s">
         <v>27</v>
       </c>
@@ -966,9 +986,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="17"/>
-      <c r="B12" s="19" t="s">
+    <row r="12" spans="1:7">
+      <c r="A12" s="20"/>
+      <c r="B12" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C12" s="6" t="s">
@@ -984,9 +1004,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="17"/>
-      <c r="B13" s="20"/>
+    <row r="13" spans="1:7" ht="39.6">
+      <c r="A13" s="20"/>
+      <c r="B13" s="17"/>
       <c r="C13" s="6" t="s">
         <v>37</v>
       </c>
@@ -1000,9 +1020,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
-      <c r="B14" s="21"/>
+    <row r="14" spans="1:7" ht="14.4" thickBot="1">
+      <c r="A14" s="21"/>
+      <c r="B14" s="18"/>
       <c r="C14" s="9" t="s">
         <v>35</v>
       </c>
@@ -1016,8 +1036,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:7">
+      <c r="A15" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
@@ -1036,9 +1056,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="17"/>
-      <c r="B16" s="19" t="s">
+    <row r="16" spans="1:7">
+      <c r="A16" s="20"/>
+      <c r="B16" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C16" s="6" t="s">
@@ -1054,9 +1074,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="17"/>
-      <c r="B17" s="20"/>
+    <row r="17" spans="1:7">
+      <c r="A17" s="20"/>
+      <c r="B17" s="17"/>
       <c r="C17" s="6" t="s">
         <v>37</v>
       </c>
@@ -1069,10 +1089,13 @@
       <c r="F17" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
-      <c r="B18" s="21"/>
+      <c r="G17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="14.4" thickBot="1">
+      <c r="A18" s="21"/>
+      <c r="B18" s="18"/>
       <c r="C18" s="9" t="s">
         <v>35</v>
       </c>
@@ -1086,8 +1109,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="6" t="s">
@@ -1105,10 +1128,13 @@
       <c r="F19" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="17"/>
-      <c r="B20" s="19" t="s">
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="20"/>
+      <c r="B20" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C20" s="6" t="s">
@@ -1124,9 +1150,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="17"/>
-      <c r="B21" s="20"/>
+    <row r="21" spans="1:7" ht="39.6">
+      <c r="A21" s="20"/>
+      <c r="B21" s="17"/>
       <c r="C21" s="6" t="s">
         <v>37</v>
       </c>
@@ -1140,9 +1166,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="21"/>
+    <row r="22" spans="1:7" ht="14.4" thickBot="1">
+      <c r="A22" s="21"/>
+      <c r="B22" s="18"/>
       <c r="C22" s="9" t="s">
         <v>35</v>
       </c>
@@ -1156,8 +1182,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="16" t="s">
+    <row r="23" spans="1:7">
+      <c r="A23" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B23" s="6" t="s">
@@ -1176,8 +1202,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="17"/>
+    <row r="24" spans="1:7">
+      <c r="A24" s="20"/>
       <c r="B24" s="6" t="s">
         <v>27</v>
       </c>
@@ -1194,9 +1220,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="19" t="s">
+    <row r="25" spans="1:7">
+      <c r="A25" s="20"/>
+      <c r="B25" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C25" s="6" t="s">
@@ -1212,9 +1238,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="17"/>
-      <c r="B26" s="20"/>
+    <row r="26" spans="1:7">
+      <c r="A26" s="20"/>
+      <c r="B26" s="17"/>
       <c r="C26" s="6" t="s">
         <v>37</v>
       </c>
@@ -1228,9 +1254,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="21"/>
+    <row r="27" spans="1:7" ht="14.4" thickBot="1">
+      <c r="A27" s="21"/>
+      <c r="B27" s="18"/>
       <c r="C27" s="9" t="s">
         <v>35</v>
       </c>
@@ -1244,8 +1270,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="16" t="s">
+    <row r="28" spans="1:7">
+      <c r="A28" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B28" s="6" t="s">
@@ -1264,8 +1290,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="17"/>
+    <row r="29" spans="1:7">
+      <c r="A29" s="20"/>
       <c r="B29" s="6" t="s">
         <v>27</v>
       </c>
@@ -1282,9 +1308,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="17"/>
-      <c r="B30" s="19" t="s">
+    <row r="30" spans="1:7">
+      <c r="A30" s="20"/>
+      <c r="B30" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C30" s="6" t="s">
@@ -1300,9 +1326,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="17"/>
-      <c r="B31" s="20"/>
+    <row r="31" spans="1:7">
+      <c r="A31" s="20"/>
+      <c r="B31" s="17"/>
       <c r="C31" s="6" t="s">
         <v>37</v>
       </c>
@@ -1316,9 +1342,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="21"/>
+    <row r="32" spans="1:7" ht="14.4" thickBot="1">
+      <c r="A32" s="21"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="9" t="s">
         <v>35</v>
       </c>
@@ -1332,8 +1358,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="54" x14ac:dyDescent="0.25">
-      <c r="A33" s="16" t="s">
+    <row r="33" spans="1:7" ht="52.8">
+      <c r="A33" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -1351,9 +1377,12 @@
       <c r="F33" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
+      <c r="G33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
+      <c r="A34" s="20"/>
       <c r="B34" s="6" t="s">
         <v>42</v>
       </c>
@@ -1370,8 +1399,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="17"/>
+    <row r="35" spans="1:7">
+      <c r="A35" s="20"/>
       <c r="B35" s="6" t="s">
         <v>27</v>
       </c>
@@ -1388,9 +1417,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="17"/>
-      <c r="B36" s="19" t="s">
+    <row r="36" spans="1:7">
+      <c r="A36" s="20"/>
+      <c r="B36" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -1406,9 +1435,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="17"/>
-      <c r="B37" s="20"/>
+    <row r="37" spans="1:7">
+      <c r="A37" s="20"/>
+      <c r="B37" s="17"/>
       <c r="C37" s="6" t="s">
         <v>37</v>
       </c>
@@ -1422,9 +1451,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="21"/>
+    <row r="38" spans="1:7" ht="14.4" thickBot="1">
+      <c r="A38" s="21"/>
+      <c r="B38" s="18"/>
       <c r="C38" s="9" t="s">
         <v>35</v>
       </c>
@@ -1438,8 +1467,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="16" t="s">
+    <row r="39" spans="1:7">
+      <c r="A39" s="19" t="s">
         <v>10</v>
       </c>
       <c r="B39" s="6" t="s">
@@ -1458,9 +1487,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="19" t="s">
+    <row r="40" spans="1:7">
+      <c r="A40" s="20"/>
+      <c r="B40" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C40" s="6" t="s">
@@ -1476,9 +1505,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="20"/>
+    <row r="41" spans="1:7">
+      <c r="A41" s="20"/>
+      <c r="B41" s="17"/>
       <c r="C41" s="6" t="s">
         <v>37</v>
       </c>
@@ -1491,10 +1520,13 @@
       <c r="F41" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="21"/>
+      <c r="G41" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="14.4" thickBot="1">
+      <c r="A42" s="21"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="9" t="s">
         <v>35</v>
       </c>
@@ -1508,8 +1540,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="16" t="s">
+    <row r="43" spans="1:7">
+      <c r="A43" s="19" t="s">
         <v>11</v>
       </c>
       <c r="B43" s="6" t="s">
@@ -1528,9 +1560,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="17"/>
-      <c r="B44" s="19" t="s">
+    <row r="44" spans="1:7">
+      <c r="A44" s="20"/>
+      <c r="B44" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C44" s="6" t="s">
@@ -1546,9 +1578,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="45" spans="1:6" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="17"/>
-      <c r="B45" s="20"/>
+    <row r="45" spans="1:7" ht="39.6">
+      <c r="A45" s="20"/>
+      <c r="B45" s="17"/>
       <c r="C45" s="6" t="s">
         <v>37</v>
       </c>
@@ -1562,9 +1594,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="21"/>
+    <row r="46" spans="1:7" ht="14.4" thickBot="1">
+      <c r="A46" s="21"/>
+      <c r="B46" s="18"/>
       <c r="C46" s="9" t="s">
         <v>35</v>
       </c>
@@ -1578,8 +1610,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="47" spans="1:6" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="16" t="s">
+    <row r="47" spans="1:7" ht="39.6">
+      <c r="A47" s="19" t="s">
         <v>12</v>
       </c>
       <c r="B47" s="3" t="s">
@@ -1597,9 +1629,12 @@
       <c r="F47" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="17"/>
+      <c r="G47" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="20"/>
       <c r="B48" s="6" t="s">
         <v>27</v>
       </c>
@@ -1616,9 +1651,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="17"/>
-      <c r="B49" s="19" t="s">
+    <row r="49" spans="1:7">
+      <c r="A49" s="20"/>
+      <c r="B49" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C49" s="6" t="s">
@@ -1634,9 +1669,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="17"/>
-      <c r="B50" s="20"/>
+    <row r="50" spans="1:7">
+      <c r="A50" s="20"/>
+      <c r="B50" s="17"/>
       <c r="C50" s="6" t="s">
         <v>37</v>
       </c>
@@ -1650,9 +1685,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="21"/>
+    <row r="51" spans="1:7" ht="14.4" thickBot="1">
+      <c r="A51" s="21"/>
+      <c r="B51" s="18"/>
       <c r="C51" s="9" t="s">
         <v>35</v>
       </c>
@@ -1666,8 +1701,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="16" t="s">
+    <row r="52" spans="1:7">
+      <c r="A52" s="19" t="s">
         <v>13</v>
       </c>
       <c r="B52" s="6" t="s">
@@ -1686,9 +1721,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="19" t="s">
+    <row r="53" spans="1:7">
+      <c r="A53" s="20"/>
+      <c r="B53" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C53" s="6" t="s">
@@ -1704,9 +1739,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="20"/>
+    <row r="54" spans="1:7" ht="39.6">
+      <c r="A54" s="20"/>
+      <c r="B54" s="17"/>
       <c r="C54" s="6" t="s">
         <v>37</v>
       </c>
@@ -1720,9 +1755,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="55" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="18"/>
-      <c r="B55" s="21"/>
+    <row r="55" spans="1:7" ht="14.4" thickBot="1">
+      <c r="A55" s="21"/>
+      <c r="B55" s="18"/>
       <c r="C55" s="9" t="s">
         <v>35</v>
       </c>
@@ -1736,8 +1771,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="16" t="s">
+    <row r="56" spans="1:7">
+      <c r="A56" s="19" t="s">
         <v>14</v>
       </c>
       <c r="B56" s="6" t="s">
@@ -1755,10 +1790,13 @@
       <c r="F56" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="17"/>
-      <c r="B57" s="19" t="s">
+      <c r="G56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
+      <c r="A57" s="20"/>
+      <c r="B57" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C57" s="6" t="s">
@@ -1774,9 +1812,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="17"/>
-      <c r="B58" s="20"/>
+    <row r="58" spans="1:7">
+      <c r="A58" s="20"/>
+      <c r="B58" s="17"/>
       <c r="C58" s="6" t="s">
         <v>37</v>
       </c>
@@ -1790,9 +1828,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="59" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
-      <c r="B59" s="21"/>
+    <row r="59" spans="1:7" ht="14.4" thickBot="1">
+      <c r="A59" s="21"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="9" t="s">
         <v>35</v>
       </c>
@@ -1806,8 +1844,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="16" t="s">
+    <row r="60" spans="1:7">
+      <c r="A60" s="19" t="s">
         <v>15</v>
       </c>
       <c r="B60" s="6" t="s">
@@ -1825,10 +1863,13 @@
       <c r="F60" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="17"/>
-      <c r="B61" s="19" t="s">
+      <c r="G60" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
+      <c r="A61" s="20"/>
+      <c r="B61" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C61" s="6" t="s">
@@ -1844,9 +1885,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="17"/>
-      <c r="B62" s="20"/>
+    <row r="62" spans="1:7" ht="39.6">
+      <c r="A62" s="20"/>
+      <c r="B62" s="17"/>
       <c r="C62" s="6" t="s">
         <v>37</v>
       </c>
@@ -1860,9 +1901,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="21"/>
+    <row r="63" spans="1:7" ht="14.4" thickBot="1">
+      <c r="A63" s="21"/>
+      <c r="B63" s="18"/>
       <c r="C63" s="9" t="s">
         <v>35</v>
       </c>
@@ -1876,8 +1917,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="16" t="s">
+    <row r="64" spans="1:7">
+      <c r="A64" s="19" t="s">
         <v>16</v>
       </c>
       <c r="B64" s="6" t="s">
@@ -1896,9 +1937,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="17"/>
-      <c r="B65" s="19" t="s">
+    <row r="65" spans="1:6">
+      <c r="A65" s="20"/>
+      <c r="B65" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C65" s="6" t="s">
@@ -1914,9 +1955,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="18"/>
-      <c r="B66" s="21"/>
+    <row r="66" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A66" s="21"/>
+      <c r="B66" s="18"/>
       <c r="C66" s="9" t="s">
         <v>35</v>
       </c>
@@ -1930,8 +1971,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="16" t="s">
+    <row r="67" spans="1:6">
+      <c r="A67" s="19" t="s">
         <v>17</v>
       </c>
       <c r="B67" s="6" t="s">
@@ -1950,8 +1991,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="17"/>
+    <row r="68" spans="1:6">
+      <c r="A68" s="20"/>
       <c r="B68" s="6" t="s">
         <v>27</v>
       </c>
@@ -1968,9 +2009,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="17"/>
-      <c r="B69" s="19" t="s">
+    <row r="69" spans="1:6">
+      <c r="A69" s="20"/>
+      <c r="B69" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C69" s="6" t="s">
@@ -1986,9 +2027,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="18"/>
-      <c r="B70" s="21"/>
+    <row r="70" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A70" s="21"/>
+      <c r="B70" s="18"/>
       <c r="C70" s="9" t="s">
         <v>35</v>
       </c>
@@ -2002,8 +2043,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A71" s="16" t="s">
+    <row r="71" spans="1:6">
+      <c r="A71" s="19" t="s">
         <v>18</v>
       </c>
       <c r="B71" s="6" t="s">
@@ -2022,8 +2063,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="17"/>
+    <row r="72" spans="1:6">
+      <c r="A72" s="20"/>
       <c r="B72" s="6" t="s">
         <v>27</v>
       </c>
@@ -2040,9 +2081,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="17"/>
-      <c r="B73" s="19" t="s">
+    <row r="73" spans="1:6">
+      <c r="A73" s="20"/>
+      <c r="B73" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C73" s="6" t="s">
@@ -2058,9 +2099,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="17"/>
-      <c r="B74" s="20"/>
+    <row r="74" spans="1:6">
+      <c r="A74" s="20"/>
+      <c r="B74" s="17"/>
       <c r="C74" s="6" t="s">
         <v>37</v>
       </c>
@@ -2074,9 +2115,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="75" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="18"/>
-      <c r="B75" s="21"/>
+    <row r="75" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A75" s="21"/>
+      <c r="B75" s="18"/>
       <c r="C75" s="9" t="s">
         <v>35</v>
       </c>
@@ -2090,8 +2131,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="s">
+    <row r="76" spans="1:6">
+      <c r="A76" s="19" t="s">
         <v>19</v>
       </c>
       <c r="B76" s="6" t="s">
@@ -2110,9 +2151,9 @@
         <v>26</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="17"/>
-      <c r="B77" s="19" t="s">
+    <row r="77" spans="1:6">
+      <c r="A77" s="20"/>
+      <c r="B77" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C77" s="6" t="s">
@@ -2128,9 +2169,9 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="18"/>
-      <c r="B78" s="21"/>
+    <row r="78" spans="1:6" ht="14.4" thickBot="1">
+      <c r="A78" s="21"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="9" t="s">
         <v>35</v>
       </c>
@@ -2144,7 +2185,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="68.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="66.599999999999994" thickBot="1">
       <c r="A79" s="14" t="s">
         <v>47</v>
       </c>
@@ -2166,42 +2207,42 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="B25:B27"/>
-    <mergeCell ref="A47:A51"/>
-    <mergeCell ref="A10:A14"/>
-    <mergeCell ref="A33:A38"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B49:B51"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A9"/>
+    <mergeCell ref="A15:A18"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A39:A42"/>
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A23:A27"/>
+    <mergeCell ref="A52:A55"/>
+    <mergeCell ref="A43:A46"/>
     <mergeCell ref="B53:B55"/>
     <mergeCell ref="B57:B59"/>
     <mergeCell ref="B65:B66"/>
     <mergeCell ref="B69:B70"/>
     <mergeCell ref="A76:A78"/>
     <mergeCell ref="B73:B75"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A15:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A56:A59"/>
     <mergeCell ref="A60:A63"/>
-    <mergeCell ref="A39:A42"/>
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A23:A27"/>
     <mergeCell ref="B61:B63"/>
     <mergeCell ref="B77:B78"/>
+    <mergeCell ref="A71:A75"/>
+    <mergeCell ref="A67:A70"/>
+    <mergeCell ref="A64:A66"/>
+    <mergeCell ref="B3:B5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B25:B27"/>
+    <mergeCell ref="A47:A51"/>
+    <mergeCell ref="A10:A14"/>
+    <mergeCell ref="A33:A38"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B49:B51"/>
     <mergeCell ref="B30:B32"/>
     <mergeCell ref="B40:B42"/>
     <mergeCell ref="B44:B46"/>
-    <mergeCell ref="A71:A75"/>
-    <mergeCell ref="A67:A70"/>
-    <mergeCell ref="A52:A55"/>
-    <mergeCell ref="A43:A46"/>
-    <mergeCell ref="A64:A66"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
